--- a/Данные/Внутри России.xlsx
+++ b/Данные/Внутри России.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Белгородская область</t>
   </si>
@@ -276,13 +276,16 @@
     <t>Чукотский автономный округ</t>
   </si>
   <si>
-    <t>Округа</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тюменская область </t>
   </si>
   <si>
     <t xml:space="preserve">Архангельская область </t>
+  </si>
+  <si>
+    <t>ОбщееКоличество</t>
+  </si>
+  <si>
+    <t>Округ</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +654,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2022</v>
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +860,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3">
         <v>517315</v>
@@ -1235,7 +1238,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3">
         <v>1411310</v>

--- a/Данные/Внутри России.xlsx
+++ b/Данные/Внутри России.xlsx
@@ -75,18 +75,9 @@
     <t>г.Москва</t>
   </si>
   <si>
-    <t>Республика Карелия</t>
-  </si>
-  <si>
-    <t>Республика Коми</t>
-  </si>
-  <si>
     <t>Архангельская область</t>
   </si>
   <si>
-    <t>Ненецкий автономный округ</t>
-  </si>
-  <si>
     <t>Вологодская область</t>
   </si>
   <si>
@@ -108,15 +99,6 @@
     <t>г.Санкт-Петербург</t>
   </si>
   <si>
-    <t>Республика Адыгея</t>
-  </si>
-  <si>
-    <t>Республика Калмыкия</t>
-  </si>
-  <si>
-    <t>Республика Крым</t>
-  </si>
-  <si>
     <t>Краснодарский край</t>
   </si>
   <si>
@@ -132,39 +114,18 @@
     <t>г.Севастополь</t>
   </si>
   <si>
-    <t>Республика Дагестан</t>
-  </si>
-  <si>
-    <t>Республика Ингушетия</t>
-  </si>
-  <si>
     <t>Кабардино-Балкарская Республика</t>
   </si>
   <si>
     <t>Карачаево-Черкесская Республика</t>
   </si>
   <si>
-    <t>Республика Северная Осетия - Алания</t>
-  </si>
-  <si>
     <t>Чеченская Республика</t>
   </si>
   <si>
     <t>Ставропольский край</t>
   </si>
   <si>
-    <t>Республика Башкортостан</t>
-  </si>
-  <si>
-    <t>Республика Марий Эл</t>
-  </si>
-  <si>
-    <t>Республика Мордовия</t>
-  </si>
-  <si>
-    <t>Республика Татарстан</t>
-  </si>
-  <si>
     <t>Удмуртская Республика</t>
   </si>
   <si>
@@ -204,24 +165,9 @@
     <t>Тюменская область</t>
   </si>
   <si>
-    <t>Ханты-Мансийский автономный округ - Югра</t>
-  </si>
-  <si>
-    <t>Ямало-Ненецкий автономный округ</t>
-  </si>
-  <si>
     <t>Челябинская область</t>
   </si>
   <si>
-    <t>Республика Алтай</t>
-  </si>
-  <si>
-    <t>Республика Тыва</t>
-  </si>
-  <si>
-    <t>Республика Хакасия</t>
-  </si>
-  <si>
     <t>Алтайский край</t>
   </si>
   <si>
@@ -243,12 +189,6 @@
     <t>Томская область</t>
   </si>
   <si>
-    <t>Республика Бурятия</t>
-  </si>
-  <si>
-    <t>Республика Саха (Якутия)</t>
-  </si>
-  <si>
     <t>Забайкальский край</t>
   </si>
   <si>
@@ -273,9 +213,6 @@
     <t>Еврейская автономная область</t>
   </si>
   <si>
-    <t>Чукотский автономный округ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тюменская область </t>
   </si>
   <si>
@@ -286,6 +223,69 @@
   </si>
   <si>
     <t>Округ</t>
+  </si>
+  <si>
+    <t>Ненецкий а.о.</t>
+  </si>
+  <si>
+    <t>Ханты-Мансийский а.о. - Югра</t>
+  </si>
+  <si>
+    <t>Ямало-Ненецкий а.о.</t>
+  </si>
+  <si>
+    <t>Чукотский а.о.</t>
+  </si>
+  <si>
+    <t>Рес. Карелия</t>
+  </si>
+  <si>
+    <t>Рес. Коми</t>
+  </si>
+  <si>
+    <t>Рес. Адыгея</t>
+  </si>
+  <si>
+    <t>Рес. Калмыкия</t>
+  </si>
+  <si>
+    <t>Рес. Крым</t>
+  </si>
+  <si>
+    <t>Рес. Дагестан</t>
+  </si>
+  <si>
+    <t>Рес. Ингушетия</t>
+  </si>
+  <si>
+    <t>Рес. Северная Осетия - Алания</t>
+  </si>
+  <si>
+    <t>Рес. Башкортостан</t>
+  </si>
+  <si>
+    <t>Рес. Марий Эл</t>
+  </si>
+  <si>
+    <t>Рес. Мордовия</t>
+  </si>
+  <si>
+    <t>Рес. Татарстан</t>
+  </si>
+  <si>
+    <t>Рес. Алтай</t>
+  </si>
+  <si>
+    <t>Рес. Тыва</t>
+  </si>
+  <si>
+    <t>Рес. Хакасия</t>
+  </si>
+  <si>
+    <t>Рес. Бурятия</t>
+  </si>
+  <si>
+    <t>Рес. Саха (Якутия)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3">
         <v>617806</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3">
         <v>435112</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
         <v>534943</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
         <v>17628</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3">
         <v>517315</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>1112103</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>685570</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
         <v>15205197</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
         <v>572946</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>1108949</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
         <v>1014754</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3">
         <v>8129585</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3">
         <v>132162</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3">
         <v>83456</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3">
         <v>4204981</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3">
         <v>20121753</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3">
         <v>414919</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3">
         <v>1133280</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3">
         <v>2128587</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3">
         <v>233787</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
         <v>507927</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3">
         <v>73139</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B42" s="3">
         <v>347705</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3">
         <v>743617</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
         <v>245180</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B45" s="3">
         <v>104844</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3">
         <v>1771898</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3">
         <v>1914771</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3">
         <v>332587</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3">
         <v>190577</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B50" s="3">
         <v>3702523</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B51" s="3">
         <v>686757</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3">
         <v>537427</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3">
         <v>1256472</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3">
         <v>723056</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3">
         <v>2214371</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>695399</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B57" s="3">
         <v>263601</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3">
         <v>1854295</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B59" s="3">
         <v>775547</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B60" s="3">
         <v>409673</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B61" s="3">
         <v>672289</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B62" s="3">
         <v>2445219</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B63" s="3">
         <v>2571483</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3">
         <v>831998</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3">
         <v>328175</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>1411310</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B67" s="3">
         <v>1737877</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3">
         <v>498448</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B69" s="3">
         <v>72296</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B70" s="3">
         <v>496112</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B71" s="3">
         <v>1571744</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B72" s="3">
         <v>1492467</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B73" s="3">
         <v>837292</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B74" s="3">
         <v>1131655</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3">
         <v>1875638</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B76" s="3">
         <v>705581</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3">
         <v>419934</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3">
         <v>673938</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3">
         <v>237467</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B80" s="3">
         <v>433914</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B81" s="3">
         <v>618342</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B82" s="3">
         <v>1421914</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3">
         <v>578821</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3">
         <v>446955</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3">
         <v>54132</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B86" s="3">
         <v>302739</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B87" s="3">
         <v>35586</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B88" s="3">
         <v>30068</v>
